--- a/REGULAR/BAYOT ELAINE.xlsx
+++ b/REGULAR/BAYOT ELAINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5C9D8-A8E5-40E1-BA2F-C35F2F8364C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -317,11 +316,23 @@
   <si>
     <t>2/24,27,28</t>
   </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>3/3,6-8/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -962,7 +973,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1008,25 +1018,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1333,34 +1343,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A117" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <pane ySplit="3690" topLeftCell="A114" activePane="bottomLeft"/>
+      <selection activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1391,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1403,7 +1413,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1425,7 +1435,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1433,7 +1443,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1446,7 +1456,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1463,7 +1473,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1507,7 +1517,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.292000000000002</v>
+        <v>63.542000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1517,12 +1527,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>124.292</v>
+        <v>121.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1542,7 +1552,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -1560,7 +1570,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>44</v>
       </c>
@@ -1580,7 +1590,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>41944</v>
       </c>
@@ -1600,7 +1610,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>41974</v>
       </c>
@@ -1620,7 +1630,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>45</v>
       </c>
@@ -1638,7 +1648,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>42005</v>
       </c>
@@ -1658,7 +1668,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>42036</v>
       </c>
@@ -1678,7 +1688,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>42064</v>
       </c>
@@ -1698,7 +1708,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>42095</v>
       </c>
@@ -1718,7 +1728,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>42125</v>
       </c>
@@ -1738,7 +1748,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>42156</v>
       </c>
@@ -1758,7 +1768,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>42186</v>
       </c>
@@ -1778,7 +1788,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>42217</v>
       </c>
@@ -1798,7 +1808,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>42248</v>
       </c>
@@ -1818,7 +1828,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>42278</v>
       </c>
@@ -1838,7 +1848,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>42309</v>
       </c>
@@ -1858,7 +1868,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>42339</v>
       </c>
@@ -1882,7 +1892,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>47</v>
       </c>
@@ -1902,7 +1912,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>42370</v>
       </c>
@@ -1922,7 +1932,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>42401</v>
       </c>
@@ -1942,7 +1952,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>42430</v>
       </c>
@@ -1968,7 +1978,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>42461</v>
       </c>
@@ -1988,7 +1998,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>42491</v>
       </c>
@@ -2014,7 +2024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>42522</v>
       </c>
@@ -2034,7 +2044,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>42552</v>
       </c>
@@ -2054,7 +2064,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>42583</v>
       </c>
@@ -2074,7 +2084,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>42614</v>
       </c>
@@ -2094,7 +2104,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>42644</v>
       </c>
@@ -2114,7 +2124,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>42675</v>
       </c>
@@ -2134,7 +2144,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>42705</v>
       </c>
@@ -2158,7 +2168,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>51</v>
       </c>
@@ -2178,7 +2188,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>42736</v>
       </c>
@@ -2198,7 +2208,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>42767</v>
       </c>
@@ -2218,7 +2228,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>42795</v>
       </c>
@@ -2244,7 +2254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>42826</v>
       </c>
@@ -2264,7 +2274,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>42856</v>
       </c>
@@ -2284,7 +2294,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>42887</v>
       </c>
@@ -2304,7 +2314,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>42917</v>
       </c>
@@ -2324,7 +2334,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>42948</v>
       </c>
@@ -2350,7 +2360,7 @@
         <v>42833</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>42979</v>
       </c>
@@ -2376,7 +2386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>49</v>
@@ -2400,7 +2410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43009</v>
       </c>
@@ -2420,7 +2430,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43040</v>
       </c>
@@ -2440,7 +2450,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43070</v>
       </c>
@@ -2464,7 +2474,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>57</v>
       </c>
@@ -2484,7 +2494,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43101</v>
       </c>
@@ -2504,7 +2514,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43132</v>
       </c>
@@ -2528,7 +2538,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43160</v>
       </c>
@@ -2552,7 +2562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43191</v>
       </c>
@@ -2572,7 +2582,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43221</v>
       </c>
@@ -2598,7 +2608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43252</v>
       </c>
@@ -2618,7 +2628,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>43282</v>
       </c>
@@ -2638,7 +2648,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>43313</v>
       </c>
@@ -2658,7 +2668,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>43344</v>
       </c>
@@ -2684,7 +2694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>43374</v>
       </c>
@@ -2704,7 +2714,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>43405</v>
       </c>
@@ -2724,7 +2734,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>43435</v>
       </c>
@@ -2744,7 +2754,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>62</v>
       </c>
@@ -2762,7 +2772,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>43466</v>
       </c>
@@ -2782,7 +2792,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>43497</v>
       </c>
@@ -2802,7 +2812,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>43525</v>
       </c>
@@ -2822,7 +2832,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>43556</v>
       </c>
@@ -2842,7 +2852,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>43586</v>
       </c>
@@ -2862,7 +2872,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>43617</v>
       </c>
@@ -2882,7 +2892,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>43647</v>
       </c>
@@ -2902,7 +2912,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>43678</v>
       </c>
@@ -2922,7 +2932,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>43709</v>
       </c>
@@ -2942,7 +2952,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>43739</v>
       </c>
@@ -2962,7 +2972,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>43770</v>
       </c>
@@ -2982,7 +2992,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>43800</v>
       </c>
@@ -3006,7 +3016,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>63</v>
       </c>
@@ -3024,7 +3034,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>43831</v>
       </c>
@@ -3044,7 +3054,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>43862</v>
       </c>
@@ -3064,7 +3074,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>43891</v>
       </c>
@@ -3088,7 +3098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>43922</v>
       </c>
@@ -3108,7 +3118,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>43952</v>
       </c>
@@ -3128,7 +3138,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>43983</v>
       </c>
@@ -3148,7 +3158,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44013</v>
       </c>
@@ -3168,7 +3178,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44044</v>
       </c>
@@ -3188,7 +3198,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44075</v>
       </c>
@@ -3208,7 +3218,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44105</v>
       </c>
@@ -3228,7 +3238,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44136</v>
       </c>
@@ -3248,7 +3258,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44166</v>
       </c>
@@ -3272,7 +3282,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>65</v>
       </c>
@@ -3290,7 +3300,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44197</v>
       </c>
@@ -3310,7 +3320,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44228</v>
       </c>
@@ -3330,7 +3340,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44256</v>
       </c>
@@ -3350,7 +3360,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44287</v>
       </c>
@@ -3370,7 +3380,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44317</v>
       </c>
@@ -3390,7 +3400,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44348</v>
       </c>
@@ -3410,7 +3420,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44378</v>
       </c>
@@ -3430,7 +3440,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44409</v>
       </c>
@@ -3450,7 +3460,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44440</v>
       </c>
@@ -3470,7 +3480,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44470</v>
       </c>
@@ -3490,7 +3500,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>44501</v>
       </c>
@@ -3510,7 +3520,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44531</v>
       </c>
@@ -3534,7 +3544,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>66</v>
       </c>
@@ -3552,7 +3562,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44562</v>
       </c>
@@ -3572,7 +3582,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>44593</v>
       </c>
@@ -3592,7 +3602,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>44621</v>
       </c>
@@ -3616,7 +3626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>79</v>
@@ -3638,7 +3648,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>78</v>
@@ -3660,7 +3670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>44652</v>
       </c>
@@ -3682,7 +3692,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>44682</v>
       </c>
@@ -3702,7 +3712,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>44713</v>
       </c>
@@ -3722,7 +3732,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>44743</v>
       </c>
@@ -3742,7 +3752,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>44774</v>
       </c>
@@ -3762,7 +3772,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>44805</v>
       </c>
@@ -3788,7 +3798,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>44835</v>
       </c>
@@ -3808,7 +3818,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>44866</v>
       </c>
@@ -3828,7 +3838,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>44896</v>
       </c>
@@ -3848,7 +3858,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>82</v>
       </c>
@@ -3866,7 +3876,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>44927</v>
       </c>
@@ -3886,7 +3896,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>44958</v>
       </c>
@@ -3912,29 +3922,37 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>44986</v>
       </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
+      <c r="B125" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D125" s="39"/>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="39"/>
+      <c r="G125" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H125" s="39">
+        <v>4</v>
+      </c>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B126" s="20"/>
+      <c r="K125" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="40"/>
+      <c r="B126" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
       <c r="E126" s="9"/>
@@ -3946,15 +3964,19 @@
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B127" s="20"/>
+      <c r="K126" s="49">
+        <v>45003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="40"/>
+      <c r="B127" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
+      <c r="D127" s="39">
+        <v>1</v>
+      </c>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
       <c r="G127" s="13" t="str">
@@ -3964,11 +3986,13 @@
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K127" s="49">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3984,9 +4008,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4002,9 +4026,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4020,23 +4044,59 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40">
         <v>45170</v>
       </c>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H131" s="43"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4053,10 +4113,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4079,28 +4139,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4113,7 +4173,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4142,7 +4202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.625</v>
       </c>
@@ -4166,17 +4226,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4197,7 +4257,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4224,7 +4284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4250,7 +4310,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4276,7 +4336,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4302,7 +4362,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4328,7 +4388,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4354,7 +4414,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4380,7 +4440,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4406,7 +4466,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4426,7 +4486,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4446,7 +4506,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4466,7 +4526,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4487,7 +4547,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4508,7 +4568,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4529,7 +4589,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4550,7 +4610,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4571,7 +4631,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4592,7 +4652,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4613,7 +4673,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4634,7 +4694,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4655,7 +4715,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4676,7 +4736,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4697,7 +4757,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4718,7 +4778,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4739,7 +4799,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4760,7 +4820,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4781,7 +4841,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4802,7 +4862,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4823,7 +4883,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4844,7 +4904,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4865,7 +4925,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4886,7 +4946,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4895,7 +4955,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4904,7 +4964,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4913,7 +4973,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4922,7 +4982,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4931,7 +4991,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4940,7 +5000,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4949,7 +5009,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4958,7 +5018,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4967,7 +5027,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4976,7 +5036,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4985,7 +5045,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4994,7 +5054,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5003,7 +5063,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5012,7 +5072,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5021,7 +5081,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5030,7 +5090,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5039,7 +5099,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5048,7 +5108,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5057,7 +5117,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5066,7 +5126,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5075,7 +5135,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5084,7 +5144,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5093,7 +5153,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5102,7 +5162,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5111,7 +5171,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5120,7 +5180,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5129,7 +5189,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5138,7 +5198,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5147,7 +5207,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BAYOT ELAINE.xlsx
+++ b/REGULAR/BAYOT ELAINE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/25,26,29/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1361,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A114" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
+      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1526,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.542000000000002</v>
+        <v>61.792000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1527,7 +1536,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>121.542</v>
+        <v>122.792</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3995,13 +4004,15 @@
         <v>45017</v>
       </c>
       <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
+      <c r="C128" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D128" s="39"/>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G128" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H128" s="39"/>
       <c r="I128" s="9"/>
@@ -4012,9 +4023,13 @@
       <c r="A129" s="40">
         <v>45047</v>
       </c>
-      <c r="B129" s="20"/>
+      <c r="B129" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
+      <c r="D129" s="39">
+        <v>3</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
       <c r="G129" s="13" t="str">
@@ -4024,13 +4039,17 @@
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
+      <c r="K129" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>45078</v>
       </c>
-      <c r="B130" s="20"/>
+      <c r="B130" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
       <c r="E130" s="9"/>
